--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_3_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_3_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>895495.3859166233</v>
+        <v>924518.4331568547</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564204</v>
+        <v>236428.3313983642</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728813</v>
+        <v>9662474.503279353</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8833218.586775606</v>
+        <v>8546297.344331576</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.97172574700318</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>243.2386572690346</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553075</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250817</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229329</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888686</v>
+        <v>115.7651157667391</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -801,7 +803,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034777</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -829,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>7.203367682519216</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>163.7978702804881</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>366.4752704092854</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>372.6932734528262</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>18.37682225755673</v>
+        <v>18.37682225755638</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1072,10 +1074,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1136,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>186.1795881614515</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1181,13 +1183,13 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>71.16968012254723</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1306,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>99.34508049624266</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,10 +1344,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>16.60557849018875</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>184.5808806410313</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1604,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>158.9897392454088</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>57.74928671088589</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1780,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>99.34508049624266</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
         <v>45.19995918853701</v>
@@ -1816,10 +1818,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>9.275596830496642</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1841,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>164.6242057717098</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>39.22879305694475</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>168.7756050755991</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2093,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>339.0399185806814</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>58.58442069852281</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2239,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,19 +2250,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>6.621576176023814</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.889868597913</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2315,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>388.7598212753467</v>
+        <v>107.0956989483103</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2378,13 +2380,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2527,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2536,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>216.6993815150876</v>
       </c>
     </row>
     <row r="26">
@@ -2555,10 +2557,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>275.4805812731075</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2652,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2731,10 +2733,10 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2755,28 +2757,28 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>99.34508049624266</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>239.2693013921271</v>
       </c>
       <c r="V29" t="n">
-        <v>150.7965934798257</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2950,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>162.336490673523</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3010,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>223.1498336210771</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3032,16 +3034,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>66.99070336972474</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3074,22 +3076,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3126,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>120.4120358099644</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3229,13 +3231,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>205.1332020905459</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3247,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3278,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>339.0399185806814</v>
       </c>
       <c r="H35" t="n">
-        <v>311.4936872159399</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3430,22 +3432,22 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>18.37682225755638</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3475,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,22 +3505,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>104.5113366705979</v>
+        <v>11.28766011054642</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3548,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3597,10 +3599,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3718,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>155.2114886365808</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>201.0891638436803</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3752,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>141.3279142046489</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>26.94389492651078</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T42" t="n">
         <v>196.8897623984489</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>18.08991703025477</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,13 +3957,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3980,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>323.9918595228954</v>
+        <v>284.5615160058696</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4040,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>43.31785343913925</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4189,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1700.340352117536</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="C2" t="n">
-        <v>1331.377835177124</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="D2" t="n">
-        <v>1331.377835177124</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="E2" t="n">
-        <v>945.5895825788796</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="F2" t="n">
-        <v>534.603677789272</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>22.09252109618846</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280443</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>1099.465256491931</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T2" t="n">
-        <v>2439.708847451772</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U2" t="n">
-        <v>2439.708847451772</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="V2" t="n">
-        <v>2439.708847451772</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="W2" t="n">
-        <v>2086.940192181657</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="X2" t="n">
-        <v>2086.940192181657</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="Y2" t="n">
-        <v>2086.940192181657</v>
+        <v>579.9844679696339</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424005</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598709</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>564.7342926608062</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>838.1292412261381</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>836.1767451915302</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>836.1767451915302</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>719.2422848210867</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>484.090176589344</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>229.8528198611424</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>229.8528198611424</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>562.6765899837193</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="C4" t="n">
-        <v>562.6765899837193</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="D4" t="n">
-        <v>562.6765899837193</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="E4" t="n">
-        <v>562.6765899837193</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>29.36865006843007</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323009</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658211</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064346</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064346</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064346</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S4" t="n">
-        <v>562.6765899837193</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T4" t="n">
-        <v>562.6765899837193</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U4" t="n">
-        <v>562.6765899837193</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V4" t="n">
-        <v>562.6765899837193</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W4" t="n">
-        <v>562.6765899837193</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X4" t="n">
-        <v>562.6765899837193</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y4" t="n">
-        <v>562.6765899837193</v>
+        <v>198.9927170031359</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>799.3633507333279</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C5" t="n">
-        <v>430.4008337929162</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D5" t="n">
-        <v>430.4008337929162</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>53.94298182036445</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2302.336936304455</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1949.568281034341</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X5" t="n">
-        <v>1576.102522773261</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="Y5" t="n">
-        <v>1185.96319079745</v>
+        <v>2366.086203674652</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4653,34 +4655,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E7" t="n">
-        <v>709.5665374816297</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1363.553390680693</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>1133.649772640952</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4799,7 +4801,7 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2394.054348082534</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2140.292562720626</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2140.292562720626</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2140.292562720626</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>2140.292562720626</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y8" t="n">
-        <v>1750.153230744814</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4920,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4990,22 +4992,22 @@
         <v>336.2769833124028</v>
       </c>
       <c r="T10" t="n">
-        <v>336.2769833124028</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U10" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V10" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.9054987607761</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="C11" t="n">
-        <v>53.94298182036445</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="D11" t="n">
-        <v>53.94298182036445</v>
+        <v>1612.648978880278</v>
       </c>
       <c r="E11" t="n">
-        <v>53.94298182036445</v>
+        <v>1226.860726282034</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036445</v>
+        <v>815.874821492426</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>397.9110133906129</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>70.71629342661572</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5069,22 +5071,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2510.703757037383</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>2256.941971675474</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V11" t="n">
-        <v>1925.879084331904</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W11" t="n">
-        <v>1573.11042906179</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X11" t="n">
-        <v>1199.64467080071</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y11" t="n">
-        <v>809.505338824898</v>
+        <v>1970.914677487028</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
@@ -5118,43 +5120,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5252,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>214.5386780278481</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C14" t="n">
-        <v>53.94298182036444</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D14" t="n">
-        <v>53.94298182036444</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E14" t="n">
-        <v>53.94298182036444</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036444</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
         <v>463.9616490733126</v>
@@ -5303,25 +5305,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2520.971603332392</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2302.336936304455</v>
+        <v>2638.816478178944</v>
       </c>
       <c r="U14" t="n">
-        <v>2048.575150942546</v>
+        <v>2385.054692817035</v>
       </c>
       <c r="V14" t="n">
-        <v>1717.512263598976</v>
+        <v>2385.054692817035</v>
       </c>
       <c r="W14" t="n">
-        <v>1364.743608328861</v>
+        <v>2032.286037546921</v>
       </c>
       <c r="X14" t="n">
-        <v>991.2778500677816</v>
+        <v>1658.820279285841</v>
       </c>
       <c r="Y14" t="n">
-        <v>601.1385180919699</v>
+        <v>1268.68094731003</v>
       </c>
     </row>
     <row r="15">
@@ -5352,22 +5354,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O15" t="n">
         <v>2188.831293537797</v>
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99.5995062532301</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="C16" t="n">
-        <v>99.5995062532301</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="D16" t="n">
-        <v>99.5995062532301</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="E16" t="n">
-        <v>99.5995062532301</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="F16" t="n">
-        <v>99.5995062532301</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="G16" t="n">
-        <v>99.5995062532301</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="H16" t="n">
-        <v>99.5995062532301</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I16" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5464,22 +5466,22 @@
         <v>336.2769833124028</v>
       </c>
       <c r="T16" t="n">
-        <v>108.9687959810045</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U16" t="n">
-        <v>99.5995062532301</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="V16" t="n">
-        <v>99.5995062532301</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="W16" t="n">
-        <v>99.5995062532301</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="X16" t="n">
-        <v>99.5995062532301</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="Y16" t="n">
-        <v>99.5995062532301</v>
+        <v>336.2769833124028</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1744.232431292459</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C17" t="n">
-        <v>1375.269914352047</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D17" t="n">
-        <v>1017.004215745297</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E17" t="n">
-        <v>631.2159631470527</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F17" t="n">
-        <v>220.2300583574451</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
         <v>53.94298182036445</v>
@@ -5513,19 +5515,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5540,25 +5542,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2520.971603332393</v>
+        <v>2657.524047526359</v>
       </c>
       <c r="V17" t="n">
-        <v>2520.971603332393</v>
+        <v>2326.461160182788</v>
       </c>
       <c r="W17" t="n">
-        <v>2520.971603332393</v>
+        <v>1973.692504912674</v>
       </c>
       <c r="X17" t="n">
-        <v>2520.971603332393</v>
+        <v>1600.226746651594</v>
       </c>
       <c r="Y17" t="n">
-        <v>2130.832271356581</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
         <v>221.4284102424006</v>
@@ -5592,43 +5594,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5698,22 +5700,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U19" t="n">
-        <v>438.9553738610022</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V19" t="n">
-        <v>438.9553738610022</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W19" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X19" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
         <v>53.94298182036445</v>
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1954.141365880777</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C20" t="n">
-        <v>1954.141365880777</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D20" t="n">
-        <v>1595.875667274027</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E20" t="n">
-        <v>1210.087414675782</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F20" t="n">
-        <v>799.1015098861748</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G20" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
         <v>53.94298182036445</v>
@@ -5750,13 +5752,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5780,22 +5782,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2637.972908494462</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2637.972908494462</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V20" t="n">
-        <v>2306.910021150891</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W20" t="n">
-        <v>1954.141365880777</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X20" t="n">
-        <v>1954.141365880777</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y20" t="n">
-        <v>1954.141365880777</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="21">
@@ -5847,7 +5849,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>546.4805193761945</v>
+        <v>517.0636002298164</v>
       </c>
       <c r="C22" t="n">
-        <v>377.5443364482876</v>
+        <v>517.0636002298164</v>
       </c>
       <c r="D22" t="n">
-        <v>377.5443364482876</v>
+        <v>517.0636002298164</v>
       </c>
       <c r="E22" t="n">
-        <v>229.6312428658945</v>
+        <v>369.1505066474233</v>
       </c>
       <c r="F22" t="n">
-        <v>222.942782082032</v>
+        <v>369.1505066474233</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>369.1505066474233</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J22" t="n">
         <v>53.94298182036445</v>
@@ -5929,31 +5931,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W22" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X22" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y22" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1215.881273373638</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="C23" t="n">
-        <v>1215.881273373638</v>
+        <v>1644.355031464126</v>
       </c>
       <c r="D23" t="n">
-        <v>857.6155747668879</v>
+        <v>1286.089332857375</v>
       </c>
       <c r="E23" t="n">
-        <v>857.6155747668879</v>
+        <v>900.3010802591311</v>
       </c>
       <c r="F23" t="n">
-        <v>446.6296699772803</v>
+        <v>489.3151754695236</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H23" t="n">
         <v>53.94298182036445</v>
@@ -5987,19 +5989,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6026,13 +6028,13 @@
         <v>2366.086203674652</v>
       </c>
       <c r="W23" t="n">
-        <v>2366.086203674652</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X23" t="n">
-        <v>1992.620445413572</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y23" t="n">
-        <v>1602.48111343776</v>
+        <v>2013.317548404538</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
         <v>221.4284102424006</v>
@@ -6069,40 +6071,40 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>2697.149091018222</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U25" t="n">
-        <v>2697.149091018222</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V25" t="n">
-        <v>2697.149091018222</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W25" t="n">
-        <v>2471.7452186737</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X25" t="n">
-        <v>2243.755667775683</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="Y25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="26">
@@ -6203,40 +6205,40 @@
         <v>1546.944160717209</v>
       </c>
       <c r="C26" t="n">
-        <v>1546.944160717209</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D26" t="n">
-        <v>1268.680947310029</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E26" t="n">
-        <v>882.8926947117851</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K26" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6266,10 +6268,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X26" t="n">
-        <v>2323.683332757142</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y26" t="n">
-        <v>1933.54400078133</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="27">
@@ -6279,67 +6281,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6358,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6403,31 +6405,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>235.9284171545819</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>235.9284171545819</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>235.9284171545819</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W28" t="n">
-        <v>235.9284171545819</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y28" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1394.624369323446</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C29" t="n">
-        <v>1394.624369323446</v>
+        <v>797.9969330253592</v>
       </c>
       <c r="D29" t="n">
-        <v>1036.358670716696</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E29" t="n">
-        <v>1036.358670716696</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F29" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.256750840535</v>
       </c>
       <c r="V29" t="n">
-        <v>2544.829299624459</v>
+        <v>1893.193863496965</v>
       </c>
       <c r="W29" t="n">
-        <v>2544.829299624459</v>
+        <v>1540.425208226851</v>
       </c>
       <c r="X29" t="n">
-        <v>2171.363541363379</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="Y29" t="n">
-        <v>1781.224209387568</v>
+        <v>1166.959449965771</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
         <v>221.4284102424006</v>
@@ -6537,7 +6539,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
         <v>129.2001442204943</v>
@@ -6549,34 +6551,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036445</v>
+        <v>2186.939341837732</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K31" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W31" t="n">
-        <v>502.7251118619119</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="X31" t="n">
-        <v>274.7355609638946</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036445</v>
+        <v>2186.939341837732</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>490.5728759019123</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C32" t="n">
-        <v>121.6103589615005</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D32" t="n">
-        <v>53.94298182036444</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E32" t="n">
-        <v>53.94298182036444</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036444</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6722,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V32" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W32" t="n">
-        <v>1640.777806202926</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X32" t="n">
-        <v>1267.312047941846</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y32" t="n">
-        <v>877.172715966034</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6776,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018223</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2294.708047044452</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C34" t="n">
-        <v>2173.079728044488</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018222</v>
+        <v>343.360151857325</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018222</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U34" t="n">
-        <v>2697.149091018222</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V34" t="n">
-        <v>2697.149091018222</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W34" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X34" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y34" t="n">
-        <v>2476.356511874692</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2310.5492509541</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C35" t="n">
-        <v>1941.586734013689</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D35" t="n">
-        <v>1583.321035406938</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E35" t="n">
-        <v>1197.532782808694</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F35" t="n">
-        <v>786.5468780190865</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G35" t="n">
-        <v>368.5830699172734</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6980,7 +6982,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="Y35" t="n">
-        <v>2697.149091018222</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692488</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>266.2060027641985</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598704</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7053,10 +7055,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C37" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D37" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E37" t="n">
-        <v>709.5665374816298</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F37" t="n">
-        <v>562.6765899837194</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G37" t="n">
-        <v>393.6767897220518</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H37" t="n">
-        <v>235.9284171545819</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I37" t="n">
-        <v>99.5995062532301</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K37" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>2567.064746875</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>2567.064746875</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064342</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X37" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y37" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>159.5099885583422</v>
+        <v>1589.347031634718</v>
       </c>
       <c r="C38" t="n">
-        <v>159.5099885583422</v>
+        <v>1220.384514694307</v>
       </c>
       <c r="D38" t="n">
-        <v>159.5099885583422</v>
+        <v>862.1188160875561</v>
       </c>
       <c r="E38" t="n">
-        <v>159.5099885583422</v>
+        <v>476.3305634893118</v>
       </c>
       <c r="F38" t="n">
-        <v>159.5099885583422</v>
+        <v>65.34465869970427</v>
       </c>
       <c r="G38" t="n">
-        <v>159.5099885583422</v>
+        <v>65.34465869970427</v>
       </c>
       <c r="H38" t="n">
         <v>53.94298182036445</v>
@@ -7175,10 +7177,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7196,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V38" t="n">
-        <v>1662.48357412947</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W38" t="n">
-        <v>1309.714918859356</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X38" t="n">
-        <v>936.2491605982757</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="Y38" t="n">
-        <v>546.109828622464</v>
+        <v>1975.94687169884</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
@@ -7272,22 +7274,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7366,16 +7368,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V40" t="n">
-        <v>2540.369809567131</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W40" t="n">
-        <v>2250.95263953017</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="X40" t="n">
-        <v>2022.963088632153</v>
+        <v>2204.611553462393</v>
       </c>
       <c r="Y40" t="n">
-        <v>2022.963088632153</v>
+        <v>2204.611553462393</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1309.714918859356</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C41" t="n">
-        <v>940.7524019189439</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D41" t="n">
-        <v>582.4867033121934</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E41" t="n">
-        <v>196.6984507139492</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F41" t="n">
-        <v>196.6984507139492</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G41" t="n">
         <v>53.94298182036445</v>
@@ -7409,19 +7411,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7433,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2247.308246834948</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="U41" t="n">
-        <v>1993.54646147304</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="V41" t="n">
-        <v>1662.48357412947</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="W41" t="n">
-        <v>1309.714918859356</v>
+        <v>2317.164380266784</v>
       </c>
       <c r="X41" t="n">
-        <v>1309.714918859356</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y41" t="n">
-        <v>1309.714918859356</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036423</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204941</v>
       </c>
       <c r="K42" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7515,16 +7517,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
         <v>53.94298182036445</v>
@@ -7603,16 +7605,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V43" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W43" t="n">
-        <v>728.1289842064342</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X43" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y43" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1546.944160717209</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C44" t="n">
-        <v>1177.981643776797</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D44" t="n">
-        <v>1177.981643776797</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E44" t="n">
-        <v>792.1933911785532</v>
+        <v>752.3647613633757</v>
       </c>
       <c r="F44" t="n">
-        <v>381.2074863889456</v>
+        <v>341.3788565737681</v>
       </c>
       <c r="G44" t="n">
         <v>53.94298182036445</v>
@@ -7646,7 +7648,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
         <v>463.9616490733126</v>
@@ -7670,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X44" t="n">
-        <v>2323.683332757143</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y44" t="n">
-        <v>1933.544000781331</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="45">
@@ -7701,73 +7703,73 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
         <v>1156.713312237151</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2066.718496146435</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C46" t="n">
-        <v>2066.718496146435</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D46" t="n">
-        <v>2066.718496146435</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E46" t="n">
-        <v>2066.718496146435</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F46" t="n">
-        <v>2066.718496146435</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G46" t="n">
         <v>2022.963088632153</v>
@@ -7837,19 +7839,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U46" t="n">
-        <v>2697.149091018222</v>
+        <v>2567.064746875</v>
       </c>
       <c r="V46" t="n">
-        <v>2697.149091018222</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W46" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X46" t="n">
-        <v>2469.159540120205</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y46" t="n">
-        <v>2248.366960976675</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
   </sheetData>
@@ -8055,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270189</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>283.7408238317658</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516219</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8766,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8778,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8933,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9006,7 +9008,7 @@
         <v>50.07369958270195</v>
       </c>
       <c r="K15" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9018,7 +9020,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9258,10 +9260,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9419,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9495,10 +9497,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9963,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10197,7 +10199,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K36" t="n">
-        <v>221.0467526719075</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10680,7 +10682,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992659</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10823,13 +10825,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.513533492832</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11148,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11385,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>61.87643319194535</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>190.4765946106546</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>8.095732519776618</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536981</v>
       </c>
     </row>
     <row r="3">
@@ -22623,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22677,10 +22679,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>110.1713104754548</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -22689,7 +22691,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -22720,16 +22722,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>154.462316415358</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491428</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S4" t="n">
-        <v>48.3476686695308</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22781,22 +22783,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>16.2585712541952</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>9.237096619435533</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -22829,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22948,7 +22950,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>128.0571403890124</v>
+        <v>128.0571403890128</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -22984,10 +22986,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -23024,16 +23026,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>195.7507819108103</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23069,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>145.2786402351106</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23084,7 +23086,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23194,13 +23196,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>56.82580834555249</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23230,10 +23232,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>231.8063182229441</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>135.3257377546725</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,13 +23311,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>31.86743971662654</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23492,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>206.2831525255987</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -23543,16 +23545,16 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>158.6990336467719</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>56.82580834555249</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>277.0062774114811</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23729,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>249.1599642490852</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23777,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>211.9953744513446</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23908,10 +23910,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>117.5062691663786</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23956,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>123.9453835684545</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23966,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23981,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>74.74425144011354</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24020,22 +24022,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>157.863899659135</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,19 +24138,19 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>138.7994718469074</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>24.28102024388212</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
@@ -24203,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>25.02434874544826</v>
+        <v>306.6884710724847</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24251,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24266,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24382,10 +24384,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
@@ -24415,7 +24417,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
@@ -24424,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>63.37316471551387</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>1.885271837007167</v>
       </c>
     </row>
     <row r="26">
@@ -24443,10 +24445,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>79.20246034757542</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24488,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24619,10 +24621,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,28 +24645,28 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>125.6900249618416</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724708</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>11.95486611616215</v>
       </c>
       <c r="V29" t="n">
-        <v>176.9556649903092</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24838,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>4.910330425104831</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24856,10 +24858,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
@@ -24898,10 +24900,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>63.37316471551392</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24920,16 +24922,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>287.6923382509582</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24962,22 +24964,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>46.83478528866348</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25093,10 +25095,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,13 +25119,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>7.012336859473038</v>
       </c>
       <c r="T34" t="n">
         <v>225.0351054580843</v>
@@ -25135,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25166,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>74.74425144011354</v>
       </c>
       <c r="H35" t="n">
-        <v>12.42908554841728</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25199,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25220,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25318,22 +25320,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>128.0571403890128</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,25 +25356,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>96.2516047562944</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25391,22 +25393,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>219.4114360937592</v>
+        <v>312.6351126538107</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25436,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25567,10 +25569,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,10 +25593,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
@@ -25606,13 +25608,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>96.92615468724722</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>24.62049154535686</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25640,7 +25642,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>272.4562558161462</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25673,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>189.504425431147</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25795,19 +25797,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>127.3311309926765</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25843,13 +25845,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724708</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25868,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>89.79231049789962</v>
+        <v>129.2226540149254</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25910,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25928,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26035,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>123.9919488199117</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26077,19 +26079,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401879</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>763912.8841460875</v>
+        <v>476991.6417020574</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>763912.8841460875</v>
+        <v>763912.8841460876</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>763912.8841460875</v>
+        <v>763912.8841460876</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>763912.8841460875</v>
+        <v>763912.8841460873</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>763912.8841460876</v>
+        <v>763912.8841460875</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>763912.8841460875</v>
+        <v>763912.8841460873</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>763912.8841460875</v>
+        <v>763912.8841460873</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>763912.8841460873</v>
+        <v>763912.8841460875</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274694.9795149698</v>
+        <v>168322.7414503685</v>
       </c>
       <c r="C2" t="n">
         <v>274694.9795149697</v>
@@ -26320,28 +26322,28 @@
         <v>274694.9795149696</v>
       </c>
       <c r="E2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="F2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149699</v>
       </c>
       <c r="G2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="H2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149696</v>
       </c>
       <c r="I2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149696</v>
       </c>
       <c r="J2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149695</v>
       </c>
       <c r="K2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="L2" t="n">
         <v>274694.9795149696</v>
-      </c>
-      <c r="L2" t="n">
-        <v>274694.9795149699</v>
       </c>
       <c r="M2" t="n">
         <v>274694.9795149696</v>
@@ -26350,10 +26352,10 @@
         <v>274694.9795149697</v>
       </c>
       <c r="O2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149696</v>
       </c>
       <c r="P2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149697</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145447</v>
+        <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>440708.0835147455</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>72254.6948711391</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>102466.1171957467</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27086.83710496504</v>
+        <v>25384.5047005482</v>
       </c>
       <c r="C4" t="n">
         <v>27086.83710496504</v>
@@ -26424,7 +26426,7 @@
         <v>27086.83710496504</v>
       </c>
       <c r="E4" t="n">
-        <v>27086.83710496503</v>
+        <v>27086.83710496504</v>
       </c>
       <c r="F4" t="n">
         <v>27086.83710496504</v>
@@ -26442,7 +26444,7 @@
         <v>27086.83710496504</v>
       </c>
       <c r="K4" t="n">
-        <v>27086.83710496503</v>
+        <v>27086.83710496504</v>
       </c>
       <c r="L4" t="n">
         <v>27086.83710496504</v>
@@ -26451,7 +26453,7 @@
         <v>27086.83710496504</v>
       </c>
       <c r="N4" t="n">
-        <v>27086.83710496504</v>
+        <v>27086.83710496503</v>
       </c>
       <c r="O4" t="n">
         <v>27086.83710496504</v>
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340948</v>
+        <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26494,7 +26496,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340946</v>
@@ -26519,37 +26521,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-425218.8148679494</v>
+        <v>-34536.48421377288</v>
       </c>
       <c r="C6" t="n">
-        <v>164749.0643465952</v>
+        <v>-275959.0191681502</v>
       </c>
       <c r="D6" t="n">
         <v>164749.0643465951</v>
       </c>
       <c r="E6" t="n">
-        <v>198376.6643465951</v>
+        <v>198376.6643465953</v>
       </c>
       <c r="F6" t="n">
-        <v>198376.6643465953</v>
+        <v>198376.6643465954</v>
       </c>
       <c r="G6" t="n">
         <v>198376.6643465952</v>
       </c>
       <c r="H6" t="n">
-        <v>198376.6643465952</v>
+        <v>198376.6643465951</v>
       </c>
       <c r="I6" t="n">
-        <v>198376.6643465952</v>
+        <v>198376.6643465951</v>
       </c>
       <c r="J6" t="n">
-        <v>21953.44515400229</v>
+        <v>126121.9694754559</v>
       </c>
       <c r="K6" t="n">
+        <v>95910.54715084861</v>
+      </c>
+      <c r="L6" t="n">
         <v>198376.6643465951</v>
-      </c>
-      <c r="L6" t="n">
-        <v>198376.6643465954</v>
       </c>
       <c r="M6" t="n">
         <v>198376.6643465951</v>
@@ -26558,10 +26560,10 @@
         <v>198376.6643465952</v>
       </c>
       <c r="O6" t="n">
-        <v>198376.6643465954</v>
+        <v>198376.6643465951</v>
       </c>
       <c r="P6" t="n">
-        <v>198376.6643465951</v>
+        <v>198376.6643465952</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170868</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26768,10 +26770,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
         <v>377.7436642170866</v>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545556</v>
@@ -26811,16 +26813,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="L4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="L4" t="n">
-        <v>674.2872727545555</v>
-      </c>
       <c r="M4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545556</v>
@@ -26957,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170868</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>342.7224034979612</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>398.1307590522001</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>398.1307590522002</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>398.1307590522001</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554469</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727436</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630671</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338305</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119867</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044138</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633801</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727384</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473556</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188917</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J3" t="n">
-        <v>76.7639270839648</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649103</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478008</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983123</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N3" t="n">
-        <v>211.3190711736701</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923048</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639066</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034984</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644445</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>48.1592209281358</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302242</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L4" t="n">
-        <v>101.2724571246924</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M4" t="n">
-        <v>106.777606591725</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666594</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175848</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383803</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678011</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701165</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695336</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197225</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -32224,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32248,22 +32250,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I18" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32336,16 +32338,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T18" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J19" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32406,13 +32408,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
@@ -32421,7 +32423,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32698,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32722,22 +32724,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32810,16 +32812,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32880,13 +32882,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32895,7 +32897,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32935,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32959,22 +32961,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33047,16 +33049,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33117,13 +33119,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33132,7 +33134,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33172,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33196,22 +33198,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33284,16 +33286,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33354,13 +33356,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33369,7 +33371,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33409,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33433,22 +33435,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33521,16 +33523,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33591,13 +33593,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33606,7 +33608,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33646,46 +33648,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33752,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33828,22 +33830,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33883,46 +33885,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33989,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34065,22 +34067,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34120,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34144,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34232,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34302,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34317,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435303</v>
+        <v>204.1123577751702</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>243.8886146223321</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492238</v>
+        <v>233.0551918837966</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530453</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.997506289869</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624592</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713858</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262939</v>
+        <v>160.6933770016708</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713957</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850085</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535656</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>148.370846145888</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557982</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873152</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,19 +35023,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35252,13 +35254,13 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279158</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35407,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
         <v>297.2230414343419</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35498,7 +35500,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245897</v>
@@ -35507,7 +35509,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35653,7 +35655,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N14" t="n">
         <v>478.8956552492236</v>
@@ -35726,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35738,7 +35740,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245897</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735646</v>
@@ -35896,10 +35898,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35975,13 +35977,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36057,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36139,7 +36141,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36215,10 +36217,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36370,10 +36372,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36437,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36449,13 +36451,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36531,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36607,10 +36609,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36683,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36768,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
         <v>297.2230414343419</v>
@@ -36844,10 +36846,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36917,19 +36919,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37005,7 +37007,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37081,10 +37083,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37160,13 +37162,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37242,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,25 +37305,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37385,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>214.4070918624587</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37394,13 +37396,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328935</v>
       </c>
       <c r="Q36" t="n">
         <v>173.8110948137341</v>
@@ -37464,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37479,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,25 +37542,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343417</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060961</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37631,13 +37633,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
         <v>130.3926104730631</v>
@@ -37701,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37716,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
         <v>297.2230414343419</v>
@@ -37792,10 +37794,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37868,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37953,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38105,7 +38107,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245897</v>
@@ -38114,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
